--- a/posesiones/1381261.xlsx
+++ b/posesiones/1381261.xlsx
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>12</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>39</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>12</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>6</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>24</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>8</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>14</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <v>16</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>15</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>6</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>11</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>15</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>10</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>25</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>7</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>12</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R64">
         <v>24</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R68">
         <v>18</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R71">
         <v>22</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R73">
         <v>27</v>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5526,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R77">
         <v>20</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R79">
         <v>19</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R87">
         <v>9</v>
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R88">
         <v>25</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R90">
         <v>7</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R94">
         <v>20</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R96">
         <v>10</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R101">
         <v>39</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R103">
         <v>12</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R105">
         <v>22</v>
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R106">
         <v>19</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R108">
         <v>12</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7161,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R110">
         <v>5</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R112">
         <v>15</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7361,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R114">
         <v>23</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R116">
         <v>16</v>
@@ -7505,10 +7505,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7737,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R123">
         <v>9</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R124">
         <v>14</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R131">
         <v>6</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R135">
         <v>27</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R140">
         <v>23</v>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R142">
         <v>14</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8919,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R146">
         <v>16</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R149">
         <v>7</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R151">
         <v>20</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9366,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R155">
         <v>17</v>
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R156">
         <v>16</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R158">
         <v>21</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9719,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R162">
         <v>29</v>
@@ -9772,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R163">
         <v>19</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R168">
         <v>19</v>
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10116,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R170">
         <v>15</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10219,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R172">
         <v>14</v>
@@ -10272,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R173">
         <v>20</v>
@@ -10322,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10372,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R175">
         <v>27</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10704,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R182">
         <v>20</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>0</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>13</v>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11474,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R198">
         <v>27</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11577,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R200">
         <v>22</v>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R206">
         <v>21</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R212">
         <v>17</v>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R218">
         <v>22</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R220">
         <v>25</v>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12647,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R222">
         <v>21</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12841,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R226">
         <v>15</v>
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12944,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R228">
         <v>18</v>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13047,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R230">
         <v>17</v>
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13150,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R232">
         <v>8</v>
@@ -13200,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R236">
         <v>0</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13541,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R240">
         <v>18</v>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13682,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R252">
         <v>2</v>
@@ -14152,10 +14152,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14478,10 +14478,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14531,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R261">
         <v>18</v>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14725,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R265">
         <v>41</v>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R266">
         <v>17</v>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R268">
         <v>14</v>
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14984,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R270">
         <v>7</v>
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R272">
         <v>21</v>
@@ -15134,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15184,7 +15184,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R274">
         <v>19</v>
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R281">
         <v>28</v>
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R282">
         <v>14</v>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R284">
         <v>14</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R288">
         <v>11</v>
@@ -15925,7 +15925,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R290">
         <v>16</v>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16072,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16119,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R294">
         <v>22</v>
@@ -16222,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R295">
         <v>24</v>
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16369,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16419,7 +16419,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R299">
         <v>16</v>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16610,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R305">
         <v>26</v>
@@ -16760,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -16813,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R308">
         <v>20</v>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17104,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17151,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17198,7 +17198,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17295,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R317">
         <v>9</v>
@@ -17345,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17442,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R320">
         <v>17</v>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17589,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R323">
         <v>0</v>
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17874,7 +17874,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17924,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R330">
         <v>31</v>
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18168,7 +18168,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R335">
         <v>16</v>
@@ -18221,7 +18221,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R336">
         <v>14</v>
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R337">
         <v>8</v>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18374,7 +18374,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R339">
         <v>22</v>
@@ -18424,7 +18424,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R341">
         <v>23</v>
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18571,7 +18571,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18621,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R344">
         <v>12</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R346">
         <v>11</v>
@@ -18774,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18824,7 +18824,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R348">
         <v>6</v>
@@ -18874,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18921,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>5</v>
@@ -19118,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R354">
         <v>16</v>
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19215,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19359,7 +19359,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R359">
         <v>18</v>
@@ -19412,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R360">
         <v>12</v>
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19509,7 +19509,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19556,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19653,7 +19653,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R365">
         <v>7</v>
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19753,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19800,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19988,7 +19988,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R377">
         <v>24</v>
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R378">
         <v>2</v>
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20417,10 +20417,10 @@
         <v>1</v>
       </c>
       <c r="P381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20467,7 +20467,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20561,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20608,7 +20608,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20702,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20843,7 +20843,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20890,7 +20890,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20931,10 +20931,10 @@
         <v>1</v>
       </c>
       <c r="P392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q392">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20984,7 +20984,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R393">
         <v>23</v>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21087,7 +21087,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R395">
         <v>9</v>
@@ -21137,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21187,7 +21187,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R397">
         <v>15</v>
@@ -21237,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21287,7 +21287,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R399">
         <v>20</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21387,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21434,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21481,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21531,7 +21531,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R404">
         <v>15</v>
@@ -21584,7 +21584,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R405">
         <v>8</v>
@@ -21634,7 +21634,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21684,7 +21684,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R407">
         <v>6</v>
@@ -21737,7 +21737,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21787,7 +21787,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R409">
         <v>7</v>
@@ -21837,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21887,7 +21887,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R411">
         <v>10</v>
@@ -21937,7 +21937,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21984,7 +21984,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22028,7 +22028,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22078,7 +22078,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R415">
         <v>0</v>
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22178,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22228,7 +22228,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R418">
         <v>14</v>
@@ -22281,7 +22281,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R419">
         <v>12</v>
@@ -22334,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22384,7 +22384,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R421">
         <v>7</v>
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22481,7 +22481,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R423">
         <v>13</v>
@@ -22531,7 +22531,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22581,7 +22581,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R425">
         <v>9</v>
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22681,7 +22681,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R427">
         <v>14</v>
@@ -22731,7 +22731,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22781,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R429">
         <v>20</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22878,7 +22878,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22972,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23069,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23119,7 +23119,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R436">
         <v>33</v>
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23316,7 +23316,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23366,7 +23366,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R441">
         <v>10</v>
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23601,7 +23601,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R447">
         <v>22</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23751,7 +23751,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R449">
         <v>17</v>
@@ -23804,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R450">
         <v>16</v>
@@ -23854,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23948,7 +23948,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23995,7 +23995,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24045,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24095,7 +24095,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R456">
         <v>22</v>
@@ -24148,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R457">
         <v>21</v>
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24342,7 +24342,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R461">
         <v>18</v>
@@ -24395,7 +24395,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24445,7 +24445,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R463">
         <v>14</v>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24545,7 +24545,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R465">
         <v>7</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24689,7 +24689,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R468">
         <v>20</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24883,7 +24883,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R472">
         <v>12</v>
@@ -24936,7 +24936,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R473">
         <v>5</v>
@@ -24986,7 +24986,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25036,7 +25036,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R475">
         <v>20</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25139,7 +25139,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R477">
         <v>5</v>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25333,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25427,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25474,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25524,7 +25524,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R485">
         <v>25</v>
@@ -25577,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25627,7 +25627,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R487">
         <v>18</v>
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25727,7 +25727,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R489">
         <v>3</v>
@@ -25777,7 +25777,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25824,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25968,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26156,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26203,7 +26203,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26250,7 +26250,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26300,7 +26300,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R501">
         <v>19</v>
@@ -26353,7 +26353,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26403,7 +26403,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R503">
         <v>13</v>
@@ -26456,7 +26456,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26506,7 +26506,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R505">
         <v>19</v>
@@ -26556,7 +26556,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26603,7 +26603,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26794,7 +26794,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26844,7 +26844,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R512">
         <v>22</v>
@@ -26897,7 +26897,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26991,7 +26991,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27038,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27085,7 +27085,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27135,7 +27135,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R518">
         <v>10</v>
@@ -27188,7 +27188,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R519">
         <v>22</v>
@@ -27244,7 +27244,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R520">
         <v>0</v>
@@ -27288,10 +27288,10 @@
         <v>1</v>
       </c>
       <c r="P521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q521">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27332,7 +27332,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
